--- a/static/precios1.xlsx
+++ b/static/precios1.xlsx
@@ -1,34 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emerson/Desktop/Todo_Mac/proyectos_python/generador_pdf_a_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emerson/Desktop/Todo_Mac/compilando/negocio_huanuco/limpiando_todo_flask/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FAA377-952D-0941-A91E-337E0E22A497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4AD930-22EB-3C4E-BC5C-3F26C79C0978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="cuidado_piso_locetas" sheetId="1" r:id="rId1"/>
-    <sheet name="cuidado_piso_madera_color" sheetId="2" r:id="rId2"/>
-    <sheet name="cuidado_ambientes" sheetId="3" r:id="rId3"/>
-    <sheet name="cuidado_manos" sheetId="4" r:id="rId4"/>
-    <sheet name="desinfectantes" sheetId="5" r:id="rId5"/>
-    <sheet name="otros_auxiliares" sheetId="6" r:id="rId6"/>
-    <sheet name="limpieza_profunda" sheetId="7" r:id="rId7"/>
-    <sheet name="cuidado_superficies" sheetId="8" r:id="rId8"/>
-    <sheet name="cuidado_autos" sheetId="9" r:id="rId9"/>
+    <sheet name="productos" sheetId="10" r:id="rId1"/>
+    <sheet name="cuidado_piso_locetas" sheetId="1" r:id="rId2"/>
+    <sheet name="cuidado_piso_madera_color" sheetId="2" r:id="rId3"/>
+    <sheet name="cuidado_ambientes" sheetId="3" r:id="rId4"/>
+    <sheet name="cuidado_manos" sheetId="4" r:id="rId5"/>
+    <sheet name="desinfectantes" sheetId="5" r:id="rId6"/>
+    <sheet name="otros_auxiliares" sheetId="6" r:id="rId7"/>
+    <sheet name="limpieza_profunda" sheetId="7" r:id="rId8"/>
+    <sheet name="cuidado_superficies" sheetId="8" r:id="rId9"/>
+    <sheet name="cuidado_autos" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="319">
   <si>
     <t>P2</t>
   </si>
@@ -874,16 +875,153 @@
   </si>
   <si>
     <t>CUIDADO DE AUTOS</t>
+  </si>
+  <si>
+    <t>productos</t>
+  </si>
+  <si>
+    <t>MAFA CERA AL AGUA NEUTRAL X LITRO</t>
+  </si>
+  <si>
+    <t>MAFA PERFUMADOR AMBIENTAL LAVANDA X LITRO</t>
+  </si>
+  <si>
+    <t>MAFA PERFUMADOR AMBIENTAL BOUQUET X LITRO</t>
+  </si>
+  <si>
+    <t>MAFA JABON DESIN. ANTIBAC FRUTOS ROJOS C/DOSIFICADOR X 400 ML</t>
+  </si>
+  <si>
+    <t>MAFA DESINFECTANTE GERMICIDA PINO X LITRO</t>
+  </si>
+  <si>
+    <t>MAFA KRESSO X LITRO</t>
+  </si>
+  <si>
+    <t>MAFA ALCOHOL EN GEL C/DOSIFICADOR X 400ML</t>
+  </si>
+  <si>
+    <t>MAFA REMOVEDOR DE SARRO X LITRO</t>
+  </si>
+  <si>
+    <t>MAFA DESATORADOR LIQUIDO X LITRO</t>
+  </si>
+  <si>
+    <t>MAFA LAVAVAJILLA LIQUIDA LIMON X 500ML</t>
+  </si>
+  <si>
+    <t>MAFA LIMPIATODO ANTIBACTERIAL BEBE X 900 ML</t>
+  </si>
+  <si>
+    <t>MAFA LIMPIATODO ANTIBACTERIAL FLORAL X 900 ML</t>
+  </si>
+  <si>
+    <t>MAFA LIMPIATODO ANTIBACTERIAL MANZANA X 900 ML</t>
+  </si>
+  <si>
+    <t>MAFA LIMPIA VIDRIOS X LITRO</t>
+  </si>
+  <si>
+    <t>MAFA LIMPIADOR DE MUEBLE X 500 ML</t>
+  </si>
+  <si>
+    <t>MAFA DESENGRASANTE LIMON X LITRO</t>
+  </si>
+  <si>
+    <t>ESPONJA DULOPILLO</t>
+  </si>
+  <si>
+    <t>ESPONJA FIBRA VERDE GENERICO</t>
+  </si>
+  <si>
+    <t>Cabezal de Pulverizador Gatillo Generico Punta REDONDA</t>
+  </si>
+  <si>
+    <t>Paños Amarillos Secatodo Virutex x 1 und</t>
+  </si>
+  <si>
+    <t>Mata Moscas de Plastico</t>
+  </si>
+  <si>
+    <t>Pastilla Aromatizante Colgable Generico 40 gr Aprox. Bouquet</t>
+  </si>
+  <si>
+    <t>Rollo Papel Toalla Megarollo Nova Doble Hoja</t>
+  </si>
+  <si>
+    <t>Esponja Metalica Redonda Generico</t>
+  </si>
+  <si>
+    <t>Esponja Superficie de Metal Carmelita</t>
+  </si>
+  <si>
+    <t>Bolsas Plasticas Negro en Rollo para Basura</t>
+  </si>
+  <si>
+    <t>Lavavajilla En Pasta Sapolio Limon Pote 360 gr x 1 undidad</t>
+  </si>
+  <si>
+    <t>Esponja Doble Uso Scotch Brite</t>
+  </si>
+  <si>
+    <t>Trapeador de Yute Simple Generico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desatorador Chupon Jebe Negro </t>
+  </si>
+  <si>
+    <t>Hisopo C/Base Plastico Generico</t>
+  </si>
+  <si>
+    <t>Guantes Domesticos Virutex Conveniente</t>
+  </si>
+  <si>
+    <t>Trapeador Microfibra Generico 45 x 70 cm Amarillo</t>
+  </si>
+  <si>
+    <t>Guantes Domesticos Amarillos Gloves Talla</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>p2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-[$S/-280A]\ * #,##0.00_-;\-[$S/-280A]\ * #,##0.00_-;_-[$S/-280A]\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF305496"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -906,13 +1044,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1212,6 +1356,399 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFBD947-DFE5-0D42-BBBB-A718D0CB7DF1}">
+  <dimension ref="A1:C35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="54.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B11" s="4">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B13" s="4">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B14" s="4">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B15" s="4">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B16" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B17" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A20" r:id="rId1" display="https://productosdelimpiezalima.com/accesorios-de-limpieza/dispensadores-y-pulverizadores/cabezal-de-pulverizador-gatillo-generico-punta-cuadrada-blanco" xr:uid="{F17011EE-583A-5B49-93C7-5D39C3EB2E81}"/>
+    <hyperlink ref="A21" r:id="rId2" display="https://productosdelimpiezalima.com/accesorios-de-limpieza/panos-y-franelas/pa%C3%B1os-amarillos-secatodo-virutex-x-1-und" xr:uid="{E24BB270-20DB-5A41-8FC6-1ACB9C3E576F}"/>
+    <hyperlink ref="A22" r:id="rId3" display="https://productosdelimpiezalima.com/accesorios-de-limpieza/plumeros/mata-moscas-de-plastico" xr:uid="{90095D20-F627-1141-B581-78D86F037719}"/>
+    <hyperlink ref="A23" r:id="rId4" display="https://productosdelimpiezalima.com/insumos-de-limpieza/pastillas-para-bano/pastilla-aromatizante-colgable-generico-40-gr-aprox-bouquet" xr:uid="{478CD833-CB78-D94D-A401-17BC24264338}"/>
+    <hyperlink ref="A24" r:id="rId5" display="https://productosdelimpiezalima.com/papeles-higienicos-y-toallas/papeles-toallas/papeles-toalla-megarollo/rollo-papel-toalla-megarollo-nova-doble-hoja" xr:uid="{46D2F5D7-3C0B-6E46-917B-55614969DB36}"/>
+    <hyperlink ref="A25" r:id="rId6" display="https://productosdelimpiezalima.com/accesorios-de-limpieza/esponjas/esponja-metalica-redonda-generico" xr:uid="{ACB58BEC-ACE2-F24B-AD4B-5DF962315119}"/>
+    <hyperlink ref="A26" r:id="rId7" display="https://productosdelimpiezalima.com/accesorios-de-limpieza/esponjas/esponja-superficie-de-metal-carmelita" xr:uid="{58E4C462-95C3-9D4A-83C1-FA54A4FEEDB0}"/>
+    <hyperlink ref="A27" r:id="rId8" display="https://productosdelimpiezalima.com/bolsas-plasticas/bolsas-negras-en-rollo/bolsas-plasticas-negro-en-rollo-20-x-30-de-30-lt-10-und-virutex" xr:uid="{FBD4518F-4FF3-FA46-A4D3-02D73ABF1C07}"/>
+    <hyperlink ref="A28" r:id="rId9" display="https://productosdelimpiezalima.com/insumos-de-limpieza/lavavajillas/lavavajilla-en-pasta-sapolio-limon-pote-360-gr-x-1-undidad" xr:uid="{FD4D5713-968C-534C-922C-203CD18E76DE}"/>
+    <hyperlink ref="A29" r:id="rId10" display="https://productosdelimpiezalima.com/accesorios-de-limpieza/esponjas/esponja-doble-uso-scotch-brite" xr:uid="{FD1FFAC4-0BDE-FB41-ACA9-993196C7647C}"/>
+    <hyperlink ref="A30" r:id="rId11" display="https://productosdelimpiezalima.com/accesorios-de-limpieza/baldes-y-trapeadores/trapeador-de-yute-simple-generico-40-x-78-cm" xr:uid="{1FE65910-9CE3-E744-9CB7-16A04C277D70}"/>
+    <hyperlink ref="A31" r:id="rId12" display="https://productosdelimpiezalima.com/accesorios-de-limpieza/utensilios-de-bano/desatorador-chupon-jebe-negro-con-m-plastico" xr:uid="{976221C4-EC3A-E24B-9A8A-8586E3107D80}"/>
+    <hyperlink ref="A32" r:id="rId13" display="https://productosdelimpiezalima.com/accesorios-de-limpieza/utensilios-de-bano/hisopo-c-base-plastico-generico" xr:uid="{5BF1DE21-A7A5-FC4E-BD46-EB1D1F524DE4}"/>
+    <hyperlink ref="A33" r:id="rId14" display="https://productosdelimpiezalima.com/accesorios-de-limpieza/guantes-de-limpieza/guantes-domesticos-virutex-conveniente-talla-7-s-amarillo" xr:uid="{64E91D82-0448-2844-912C-88C7E5D848C9}"/>
+    <hyperlink ref="A34" r:id="rId15" display="https://productosdelimpiezalima.com/accesorios-de-limpieza/baldes-y-trapeadores/trapeador-microfibra-generico-45-x-70-cm-amarillo" xr:uid="{95783909-B235-CD44-9DF9-9357DF1B2E50}"/>
+    <hyperlink ref="A35" r:id="rId16" display="https://productosdelimpiezalima.com/accesorios-de-limpieza/guantes-de-limpieza/guantes-domesticos-amarillos-gloves-talla-s-7" xr:uid="{6C965D58-505E-9F41-80B9-07AC62251405}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -1411,7 +1948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -1550,7 +2087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -1634,7 +2171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1707,7 +2244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -1879,7 +2416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -2172,7 +2709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -2432,7 +2969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
@@ -2921,132 +3458,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="22.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>264</v>
-      </c>
-      <c r="B6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>265</v>
-      </c>
-      <c r="B7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>266</v>
-      </c>
-      <c r="B8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>267</v>
-      </c>
-      <c r="B9" t="s">
-        <v>268</v>
-      </c>
-      <c r="C9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>270</v>
-      </c>
-      <c r="B10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C10" t="s">
-        <v>272</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>